--- a/biology/Zoologie/Thomas_Algernon_Chapman/Thomas_Algernon_Chapman.xlsx
+++ b/biology/Zoologie/Thomas_Algernon_Chapman/Thomas_Algernon_Chapman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Algernon Chapman est un médecin et un entomologiste britannique, né le 2 juillet 1842 à Glasgow et mort le 17 décembre 1921 à Reigate, Surrey.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Édimbourg et à Glasgow avant de travailler comme médecin au Glasgow Royal Infirmary. Il part ensuite à Abergavenny où il travaille dans un asile. Il prend plus tard la direction de l’asile de la ville d’Hereford, fonction qu’il conserve jusqu’à sa retraite en 1897. Il se retire alors chez ses deux sœurs non mariées qui vivaient à Reigate.
 Il se consacre à l’étude des lépidoptères, principalement les Lycaenidae, du continent jusqu’à la Première Guerre mondiale. Il s’intéresse également aux microlépidoptères, notamment ceux des familles de Tortricidae et de Psychidae ainsi qu’occasionnellement aux diptères, coléoptères et hyménoptères. Il fait paraître ses premiers articles en collaboration avec son père, passionné également d’histoire naturelle.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michael A. Salmon, Peter Marren et Basil Harley (2000). The Aurelian Legacy. British Butterflies and their Collectors. Harley Books (Colchester) : 432 p.</t>
         </is>
